--- a/Server/db.xlsx
+++ b/Server/db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shantanu\Desktop\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projects\Score automation\SocAuto\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16E4F50-7DFE-468E-812D-DE8BA6C71B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CA9434-4B94-42E0-AD9B-FCFE3E510FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A893ADA-A67F-489F-B862-F40A101A20AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{8A893ADA-A67F-489F-B862-F40A101A20AA}"/>
   </bookViews>
   <sheets>
     <sheet name="PACRUNNER" sheetId="2" r:id="rId1"/>
@@ -691,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12515E90-E75A-4772-865D-03660B866280}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
+    <sheetView zoomScale="126" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE61595B-BA97-40A9-AB2A-ADC87313EBA0}">
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,7 +1417,7 @@
         <v>23</v>
       </c>
       <c r="U6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="U7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="W7">
         <v>0</v>
